--- a/biology/Zoologie/Ctenodactylus/Ctenodactylus.xlsx
+++ b/biology/Zoologie/Ctenodactylus/Ctenodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenodactylus est un genre de petits rongeurs de la famille des Ctenodactylidae. On trouve ces gundis en Afrique.
 Ce genre a été décrit pour la première fois en 1830 par le zoologiste britannique John Edward Gray (1800-1875).
@@ -512,11 +524,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (30 déc. 2012)[1], ITIS      (30 déc. 2012)[2], Catalogue of Life                                   (30 déc. 2012)[3] et NCBI  (30 déc. 2012)[4] :
-Ctenodactylus gundi (Rothmann, 1776) — Goundi d'Afrique du Nord[5] ou Goundi de l'Atlas[6]
-Ctenodactylus vali Thomas, 1902 — Goundi du Sahara[5] ou Goundi du désert[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (30 déc. 2012), ITIS      (30 déc. 2012), Catalogue of Life                                   (30 déc. 2012) et NCBI  (30 déc. 2012) :
+Ctenodactylus gundi (Rothmann, 1776) — Goundi d'Afrique du Nord ou Goundi de l'Atlas
+Ctenodactylus vali Thomas, 1902 — Goundi du Sahara ou Goundi du désert.</t>
         </is>
       </c>
     </row>
